--- a/calc_scores.xlsx
+++ b/calc_scores.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1637851050" val="1034" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1637851050" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1637851050" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1637851050"/>
+      <pm:revision xmlns:pm="smNativeData" day="1638108971" val="1034" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1638108971" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1638108971" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1638108971"/>
     </ext>
   </extLst>
 </workbook>
@@ -178,7 +178,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1637851050" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1638108971" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -193,7 +193,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1637851050" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1638108971" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -209,7 +209,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1637851050" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1638108971" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
@@ -231,7 +231,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1637851050" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1638108971" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -253,7 +253,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1637851050"/>
+          <pm:border xmlns:pm="smNativeData" id="1638108971"/>
         </ext>
       </extLst>
     </border>
@@ -272,7 +272,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1637851050"/>
+          <pm:border xmlns:pm="smNativeData" id="1638108971"/>
         </ext>
       </extLst>
     </border>
@@ -295,7 +295,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1637851050" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1638108971" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -559,11 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFC26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -572,7 +572,7 @@
     <col min="2" max="16383" width="10.000000" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16383" s="2" customFormat="1">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -819,7 +819,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1637851050" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1638108971" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -828,14 +828,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1637851050" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1637851050" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1638108971" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1638108971" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1637851050" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1638108971" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/calc_scores.xlsx
+++ b/calc_scores.xlsx
@@ -5,25 +5,26 @@
   <fileSharing readOnlyRecommended="0" userName="jeremylynch"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="DAVF" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1638108971" val="1034" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1638108971" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1638108971" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1638108971"/>
+      <pm:revision xmlns:pm="smNativeData" day="1638708087" val="1034" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1638708087" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1638708087" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1638708087"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Variable</t>
   </si>
@@ -154,6 +155,24 @@
   </si>
   <si>
     <t>High/low</t>
+  </si>
+  <si>
+    <t>Cognard</t>
+  </si>
+  <si>
+    <t>Borden</t>
+  </si>
+  <si>
+    <t>Zipfel</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Antegrade sinus flow, retrograde sinus flow, antegrade flow with cortical venous reflux, retrograde sinus flow with cortical venous reflux, non-ectatic cortical vein, ectatic cortical vein, spinal perimedullary vein</t>
+  </si>
+  <si>
+    <t>Symptomatic</t>
   </si>
 </sst>
 </file>
@@ -178,7 +197,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1638108971" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1638708087" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -193,7 +212,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1638108971" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1638708087" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -209,7 +228,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1638108971" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1638708087" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
@@ -231,7 +250,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1638108971" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1638708087" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -253,7 +272,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1638108971"/>
+          <pm:border xmlns:pm="smNativeData" id="1638708087"/>
         </ext>
       </extLst>
     </border>
@@ -272,7 +291,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1638108971"/>
+          <pm:border xmlns:pm="smNativeData" id="1638708087"/>
         </ext>
       </extLst>
     </border>
@@ -280,12 +299,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -295,7 +317,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1638108971" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1638708087" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -561,9 +583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+    <sheetView view="normal" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -819,7 +841,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1638108971" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1638708087" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -828,14 +850,85 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1638108971" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1638108971" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1638708087" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1638708087" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1638108971" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1638708087" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <cols>
+    <col min="1" max="1" width="10.000000" style="3"/>
+    <col min="2" max="2" width="25.270270" customWidth="1" style="3"/>
+    <col min="3" max="16384" width="10.000000" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16384" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1638708087" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1638708087" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1638708087" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1638708087" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/calc_scores.xlsx
+++ b/calc_scores.xlsx
@@ -5,26 +5,609 @@
   <fileSharing readOnlyRecommended="0" userName="jeremylynch"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="4" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="DAVF" sheetId="2" r:id="rId5"/>
+    <sheet name="Aneurysm" sheetId="1" r:id="rId4"/>
+    <sheet name="AVM" sheetId="2" r:id="rId5"/>
+    <sheet name="IIH" sheetId="3" r:id="rId6"/>
+    <sheet name="AVF" sheetId="4" r:id="rId7"/>
+    <sheet name="Thrombectomy" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1638708087" val="1034" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1638708087" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1638708087" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1638708087"/>
+      <pm:revision xmlns:pm="smNativeData" day="1641500659" val="1040" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1641500659" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1641500659" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1641500659"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Unknown</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+                  <pm:cs face="Arial" weight="bold"/>
+                  <pm:ea face="Arial" weight="bold"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Jeremy Lynch:</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs weight="normal"/>
+                  <pm:ea weight="normal"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t xml:space="preserve">
+https://surgicalneurologyint.com/surgicalint-articles/a-proposed-grading-system-for-endovascular-treatment-of-cerebral-arteriovenous-malformations-buffalo-score-2/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+                  <pm:cs face="Arial" weight="bold"/>
+                  <pm:ea face="Arial" weight="bold"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Jeremy Lynch:</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs weight="normal"/>
+                  <pm:ea weight="normal"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t xml:space="preserve">
+https://sci-hub.yncjkj.com/https://doi.org/10.1177/159101990100700102
+ The assigned scores were as follows: nidus (fistula = 0, &lt; 1 cm = 1, 1–3 cm = 2), type of feeding arteries (cortical = 0, perforator or choroidal = 1), number of feeding arteries (single = 0, multiple = 2) and number of draining veins (single = 0, multiple = 1).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+                  <pm:cs face="Arial" weight="bold"/>
+                  <pm:ea face="Arial" weight="bold"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Jeremy Lynch:</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs weight="normal"/>
+                  <pm:ea weight="normal"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t xml:space="preserve">
+https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3101505/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+                  <pm:cs face="Arial" weight="bold"/>
+                  <pm:ea face="Arial" weight="bold"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Jeremy Lynch:</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs weight="normal"/>
+                  <pm:ea weight="normal"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t xml:space="preserve">
+https://sci-hub.wf/10.3171/jns.2002.96.1.0079
+AVM score = (0.1)(AVM volume) + (0.02)(patient age) + (0.3)(AVM
+location).
+† When  an AVM  involves  multiple  sites,  fractional  values  are  used  according to the number of sites (0.5 for two sites, 0.33 for three sites).</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Unknown</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+                  <pm:cs face="Arial" weight="bold"/>
+                  <pm:ea face="Arial" weight="bold"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Jeremy Lynch:</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs weight="normal"/>
+                  <pm:ea weight="normal"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t xml:space="preserve">
+https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3101505/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+                  <pm:cs face="Arial" weight="bold"/>
+                  <pm:ea face="Arial" weight="bold"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Jeremy Lynch:</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs weight="normal"/>
+                  <pm:ea weight="normal"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t xml:space="preserve">
+https://sci-hub.yncjkj.com/https://doi.org/10.1177/159101990100700102
+ The assigned scores were as follows: nidus (fistula = 0, &lt; 1 cm = 1, 1–3 cm = 2), type of feeding arteries (cortical = 0, perforator or choroidal = 1), number of feeding arteries (single = 0, multiple = 2) and number of draining veins (single = 0, multiple = 1).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+                  <pm:cs face="Arial" weight="bold"/>
+                  <pm:ea face="Arial" weight="bold"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Jeremy Lynch:</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs weight="normal"/>
+                  <pm:ea weight="normal"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t xml:space="preserve">
+https://surgicalneurologyint.com/surgicalint-articles/a-proposed-grading-system-for-endovascular-treatment-of-cerebral-arteriovenous-malformations-buffalo-score-2/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+                  <pm:cs face="Arial" weight="bold"/>
+                  <pm:ea face="Arial" weight="bold"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Jeremy Lynch:</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs weight="normal"/>
+                  <pm:ea weight="normal"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t xml:space="preserve">
+https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6515981/</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Unknown</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+                  <pm:cs face="Arial" weight="bold"/>
+                  <pm:ea face="Arial" weight="bold"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Jeremy Lynch:</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs weight="normal"/>
+                  <pm:ea weight="normal"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t xml:space="preserve">
+https://sci-hub.wf/10.3171/jns.2002.96.1.0079
+AVM score = (0.1)(AVM volume) + (0.02)(patient age) + (0.3)(AVM
+location).
+† When  an AVM  involves  multiple  sites,  fractional  values  are  used  according to the number of sites (0.5 for two sites, 0.33 for three sites).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+                  <pm:cs face="Arial" weight="bold"/>
+                  <pm:ea face="Arial" weight="bold"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Jeremy Lynch:</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs weight="normal"/>
+                  <pm:ea weight="normal"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t xml:space="preserve">
+https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3101505/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+                  <pm:cs face="Arial" weight="bold"/>
+                  <pm:ea face="Arial" weight="bold"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Jeremy Lynch:</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs weight="normal"/>
+                  <pm:ea weight="normal"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t xml:space="preserve">
+https://sci-hub.yncjkj.com/https://doi.org/10.1177/159101990100700102
+ The assigned scores were as follows: nidus (fistula = 0, &lt; 1 cm = 1, 1–3 cm = 2), type of feeding arteries (cortical = 0, perforator or choroidal = 1), number of feeding arteries (single = 0, multiple = 2) and number of draining veins (single = 0, multiple = 1).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+                  <pm:cs face="Arial" weight="bold"/>
+                  <pm:ea face="Arial" weight="bold"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t>Jeremy Lynch:</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+            <family val="1"/>
+            <sz val="10"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1641500659">
+                  <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+                  <pm:cs weight="normal"/>
+                  <pm:ea weight="normal"/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
+          <t xml:space="preserve">
+https://surgicalneurologyint.com/surgicalint-articles/a-proposed-grading-system-for-endovascular-treatment-of-cerebral-arteriovenous-malformations-buffalo-score-2/</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
   <si>
     <t>Variable</t>
   </si>
@@ -157,22 +740,204 @@
     <t>High/low</t>
   </si>
   <si>
+    <t>Spetzler Martin + Supplementary</t>
+  </si>
+  <si>
+    <t>Buffalo Endovascular Score</t>
+  </si>
+  <si>
+    <t>Willinsky Score</t>
+  </si>
+  <si>
+    <t>Feliziano</t>
+  </si>
+  <si>
+    <t>Pollock Flickinger Radiosurgery</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>&lt; 3 (1), 3-6 (2), &gt; 6 (3)</t>
+  </si>
+  <si>
+    <t>Fistula (0), &lt; 1 cm (1), 1-3 cm (2)</t>
+  </si>
+  <si>
+    <t>Fistula (1)</t>
+  </si>
+  <si>
+    <t>Venous drainage</t>
+  </si>
+  <si>
+    <t>Superficial (0), Deep (1)</t>
+  </si>
+  <si>
+    <t>Eloquence</t>
+  </si>
+  <si>
+    <t>No (0), Yes (1)</t>
+  </si>
+  <si>
+    <t>&lt;20 (1), 20-40 (2), &gt;40 (3)</t>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>No (1), Yes (0)</t>
+  </si>
+  <si>
+    <t>Compactness</t>
+  </si>
+  <si>
+    <t>Number of arterial pedicles/feeding arteries</t>
+  </si>
+  <si>
+    <t>1 or 2 (1), 3 or 4 (2), 5 or more (3)</t>
+  </si>
+  <si>
+    <t>1 (0), multiple (2)</t>
+  </si>
+  <si>
+    <t>&lt;3 (1), 3-5 (2), &gt;5 (3)</t>
+  </si>
+  <si>
+    <t>Diameter of arterial pedicles</t>
+  </si>
+  <si>
+    <t>Most &gt; 1 mm (0), most ≤ 1 mm (1)</t>
+  </si>
+  <si>
+    <t>Type of feeding arteries</t>
+  </si>
+  <si>
+    <t>Cortical (0), perforator or choroidal (1)</t>
+  </si>
+  <si>
+    <t>Number of draining veins</t>
+  </si>
+  <si>
+    <t>Single (0), multiple (1)</t>
+  </si>
+  <si>
+    <t>Nidal volume</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Frontal or temporal (0), parietal/occipital/intraventricular/corpus c/cerebellar (1), basal ganaglia/thalamic/brainstem 2)</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Pachymeningeal enhancement</t>
+  </si>
+  <si>
+    <t>Engorgement of venous sinus</t>
+  </si>
+  <si>
+    <t>Effacement of suprasellar cistern by 4 mm or less</t>
+  </si>
+  <si>
+    <t>Subdural fluid collection</t>
+  </si>
+  <si>
+    <t>Effacement of prepontine cistern by 5 mm or less</t>
+  </si>
+  <si>
+    <t>Mamillopontine distance of 6.5 mm or less</t>
+  </si>
+  <si>
     <t>Cognard</t>
   </si>
   <si>
-    <t>Borden</t>
-  </si>
-  <si>
-    <t>Zipfel</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>Antegrade sinus flow, retrograde sinus flow, antegrade flow with cortical venous reflux, retrograde sinus flow with cortical venous reflux, non-ectatic cortical vein, ectatic cortical vein, spinal perimedullary vein</t>
-  </si>
-  <si>
-    <t>Symptomatic</t>
+    <t>DAWN</t>
+  </si>
+  <si>
+    <t>DEFUSE 3</t>
+  </si>
+  <si>
+    <t>Occlusion site</t>
+  </si>
+  <si>
+    <t>ICA, MCA, Both</t>
+  </si>
+  <si>
+    <t>ICA, MCA, both</t>
+  </si>
+  <si>
+    <t>A: &gt;80, NIHSS &gt;=10, Infarct &lt; 21 cc.
+B: &lt;80, NIHSS &gt;=10, Infact &lt; 31 cc.
+C: &lt;80, NIHSS &gt;=20, Infarct 31-50</t>
+  </si>
+  <si>
+    <t>18-90</t>
+  </si>
+  <si>
+    <t>NIHSS</t>
+  </si>
+  <si>
+    <t>&gt;= 6</t>
+  </si>
+  <si>
+    <t>Infarct volume</t>
+  </si>
+  <si>
+    <t>&lt; 70cc</t>
+  </si>
+  <si>
+    <t>Ratio of ischaemic tissue to infarct volume</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Penumbra volume</t>
+  </si>
+  <si>
+    <t>&gt;= 15 (Tmax &gt; 6 on RAPID)</t>
+  </si>
+  <si>
+    <t>&gt;18</t>
+  </si>
+  <si>
+    <t>Baseline mRS</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>Time since last known well</t>
+  </si>
+  <si>
+    <t>6-24 h</t>
+  </si>
+  <si>
+    <t>6-16 h</t>
+  </si>
+  <si>
+    <t>ASPECTS/stroke extent</t>
+  </si>
+  <si>
+    <t>No evidence of stroke &gt; 1/3 MCA territory</t>
+  </si>
+  <si>
+    <t>ICH</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>tPA</t>
+  </si>
+  <si>
+    <t>Yes or no</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -189,7 +954,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;£&quot;_-;\-* #,##0.00\ &quot;£&quot;_-;_-* &quot;-&quot;??\ &quot;£&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _£_-;\-* #,##0.00\ _£_-;_-* &quot;-&quot;??\ _£_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <family val="1"/>
@@ -197,7 +962,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1638708087" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1641500659" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -212,7 +977,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1638708087" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1641500659" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -228,10 +993,26 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1638708087" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1641500659" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="1"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1641500659" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -250,7 +1031,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1638708087" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1641500659" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -272,7 +1053,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1638708087"/>
+          <pm:border xmlns:pm="smNativeData" id="1641500659"/>
         </ext>
       </extLst>
     </border>
@@ -291,7 +1072,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1638708087"/>
+          <pm:border xmlns:pm="smNativeData" id="1641500659"/>
         </ext>
       </extLst>
     </border>
@@ -299,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -307,6 +1088,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -317,7 +1099,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1638708087" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1641500659" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -584,7 +1366,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -841,7 +1623,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1638708087" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1641500659" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -850,14 +1632,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1638708087" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1638708087" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1641500659" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1641500659" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1638708087" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1641500659" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -868,20 +1650,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView view="normal" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
-    <col min="1" max="1" width="10.000000" style="3"/>
-    <col min="2" max="2" width="25.270270" customWidth="1" style="3"/>
-    <col min="3" max="16384" width="10.000000" style="3"/>
+    <col min="1" max="1" width="11.756757" customWidth="1" style="1"/>
+    <col min="2" max="2" width="14.459459" customWidth="1" style="1"/>
+    <col min="3" max="3" width="15.945946" customWidth="1" style="1"/>
+    <col min="4" max="5" width="10.000000" style="1"/>
+    <col min="6" max="6" width="11.549550" customWidth="1" style="1"/>
+    <col min="7" max="16384" width="10.000000" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -894,25 +1680,135 @@
       <c r="D1" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1638708087" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1641500659" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -921,14 +1817,392 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1638708087" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1638708087" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1641500659" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1641500659" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1641500659" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <cols>
+    <col min="1" max="1" width="18.648649" customWidth="1" style="1"/>
+    <col min="2" max="16384" width="10.000000" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1641500659" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1641500659" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1641500659" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1641500659" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1641500659" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1641500659" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1641500659" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1641500659" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <cols>
+    <col min="2" max="2" width="33.918919" customWidth="1"/>
+    <col min="3" max="3" width="15.675676" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.05" customHeight="1">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.10" customHeight="1">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1641500659" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1641500659" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1641500659" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1638708087" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1641500659" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1641500659" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1641500659" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1641500659" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1641500659" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
